--- a/Presentation/ClassSplits.xlsx
+++ b/Presentation/ClassSplits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usele\Documents\Cours\IFT6760B\ANML-Project\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EC2D21-4359-4C76-BFFD-D18B9BE81493}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297E547-8DAD-4344-A822-0757DCAFD6A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{8A6776D1-8E09-44E6-9646-804AAFA360C9}"/>
   </bookViews>
@@ -131,13 +131,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,7 +457,7 @@
   <dimension ref="A2:AB82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="S81" sqref="S81"/>
+      <selection activeCell="K83" sqref="E75:K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4143,7 +4144,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:N62" si="5">MOD($A36,B$2)</f>
+        <f t="shared" ref="B36:N55" si="5">MOD($A36,B$2)</f>
         <v>0</v>
       </c>
       <c r="C36">
@@ -7396,42 +7397,42 @@
       </c>
       <c r="S77">
         <f ca="1">RANDBETWEEN(0,1002)</f>
-        <v>701</v>
+        <v>526</v>
       </c>
       <c r="T77">
         <f t="shared" ref="T77:AB77" ca="1" si="11">RANDBETWEEN(0,1002)</f>
-        <v>681</v>
+        <v>274</v>
       </c>
       <c r="U77">
         <f t="shared" ca="1" si="11"/>
-        <v>553</v>
+        <v>723</v>
       </c>
       <c r="V77">
         <f t="shared" ca="1" si="11"/>
-        <v>24</v>
+        <v>778</v>
       </c>
       <c r="W77">
         <v>1</v>
       </c>
       <c r="X77">
         <f t="shared" ca="1" si="11"/>
-        <v>548</v>
+        <v>750</v>
       </c>
       <c r="Y77">
         <f t="shared" ca="1" si="11"/>
-        <v>770</v>
+        <v>798</v>
       </c>
       <c r="Z77">
         <f t="shared" ca="1" si="11"/>
-        <v>417</v>
+        <v>689</v>
       </c>
       <c r="AA77">
         <f t="shared" ca="1" si="11"/>
-        <v>795</v>
+        <v>884</v>
       </c>
       <c r="AB77">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="2:28" x14ac:dyDescent="0.4">
@@ -7453,19 +7454,19 @@
       </c>
       <c r="S78">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T78">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W78">
         <f t="shared" si="12"/>
@@ -7473,23 +7474,23 @@
       </c>
       <c r="X78">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y78">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z78">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA78">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB78">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:28" x14ac:dyDescent="0.4">
@@ -7511,19 +7512,19 @@
       </c>
       <c r="S79">
         <f t="shared" ca="1" si="13"/>
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="T79">
         <f t="shared" ca="1" si="13"/>
-        <v>227</v>
+        <v>91</v>
       </c>
       <c r="U79">
         <f t="shared" ca="1" si="13"/>
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="V79">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="W79">
         <f t="shared" si="13"/>
@@ -7531,26 +7532,28 @@
       </c>
       <c r="X79">
         <f t="shared" ca="1" si="13"/>
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="Y79">
         <f t="shared" ca="1" si="13"/>
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="Z79">
         <f t="shared" ca="1" si="13"/>
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="AA79">
         <f t="shared" ca="1" si="13"/>
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="AB79">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="81" spans="15:28" x14ac:dyDescent="0.4">
+    <row r="81" spans="7:28" x14ac:dyDescent="0.4">
+      <c r="G81" s="6"/>
+      <c r="J81" s="6"/>
       <c r="O81">
         <f>O79*$N$76+O78</f>
         <v>40</v>
@@ -7569,19 +7572,19 @@
       </c>
       <c r="S81">
         <f t="shared" ref="S81:AB81" ca="1" si="15">S79*$N$76+S78</f>
-        <v>701</v>
+        <v>526</v>
       </c>
       <c r="T81">
         <f t="shared" ca="1" si="15"/>
-        <v>681</v>
+        <v>274</v>
       </c>
       <c r="U81">
         <f t="shared" ca="1" si="15"/>
-        <v>553</v>
+        <v>723</v>
       </c>
       <c r="V81">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>778</v>
       </c>
       <c r="W81">
         <f t="shared" si="15"/>
@@ -7589,26 +7592,26 @@
       </c>
       <c r="X81">
         <f t="shared" ca="1" si="15"/>
-        <v>548</v>
+        <v>750</v>
       </c>
       <c r="Y81">
         <f t="shared" ca="1" si="15"/>
-        <v>770</v>
+        <v>798</v>
       </c>
       <c r="Z81">
         <f t="shared" ca="1" si="15"/>
-        <v>417</v>
+        <v>689</v>
       </c>
       <c r="AA81">
         <f t="shared" ca="1" si="15"/>
-        <v>795</v>
+        <v>884</v>
       </c>
       <c r="AB81">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="82" spans="15:28" x14ac:dyDescent="0.4">
+    <row r="82" spans="7:28" x14ac:dyDescent="0.4">
       <c r="O82" t="b">
         <f t="shared" ref="O82:AA82" si="16">O81=O77</f>
         <v>1</v>

--- a/Presentation/ClassSplits.xlsx
+++ b/Presentation/ClassSplits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usele\Documents\Cours\IFT6760B\ANML-Project\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9297E547-8DAD-4344-A822-0757DCAFD6A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB2A3D-CFAC-48FA-933F-E5CFAA802F00}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{8A6776D1-8E09-44E6-9646-804AAFA360C9}"/>
+    <workbookView xWindow="16457" yWindow="0" windowWidth="16457" windowHeight="17914" xr2:uid="{8A6776D1-8E09-44E6-9646-804AAFA360C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>Loss</t>
   </si>
@@ -131,14 +131,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5199C0-0DAE-4C76-BB59-0C87DF71C1AD}">
-  <dimension ref="A2:AB82"/>
+  <dimension ref="A2:AB93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="K83" sqref="E75:K83"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7297,7 +7296,7 @@
         <v>0.40663900414937759</v>
       </c>
     </row>
-    <row r="65" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B65" s="1">
         <v>1</v>
       </c>
@@ -7377,300 +7376,2595 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70">
+        <v>6</v>
+      </c>
+      <c r="H70">
+        <v>7</v>
+      </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
+      <c r="J70">
+        <v>9</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>11</v>
+      </c>
+      <c r="M70">
+        <v>12</v>
+      </c>
+      <c r="N70">
+        <v>13</v>
+      </c>
+      <c r="O70">
+        <v>14</v>
+      </c>
+      <c r="P70">
+        <v>15</v>
+      </c>
+      <c r="Q70">
+        <v>16</v>
+      </c>
+      <c r="R70">
+        <v>17</v>
+      </c>
+      <c r="S70">
+        <v>18</v>
+      </c>
+      <c r="T70">
+        <v>19</v>
+      </c>
+      <c r="U70">
+        <v>20</v>
+      </c>
+      <c r="V70">
+        <v>21</v>
+      </c>
+      <c r="W70">
+        <v>22</v>
+      </c>
+      <c r="X70">
+        <v>23</v>
+      </c>
+      <c r="Y70">
+        <v>24</v>
+      </c>
+      <c r="Z70">
+        <v>25</v>
+      </c>
+      <c r="AA70">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71">
+        <f>MOD($A71,B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f t="shared" ref="C71:R86" si="11">MOD($A71,C$2)</f>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="Q71">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <f t="shared" ref="O71:AA86" si="12">MOD($A71,S$2)</f>
+        <v>2</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="Z71">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AA71">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>26</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:Q90" si="13">MOD($A72,B$2)</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z72">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>26</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z73">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Q74">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z74">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>26</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
       <c r="N76">
-        <v>3</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>45</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
       <c r="O77">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" ref="AB77" ca="1" si="14">RANDBETWEEN(0,1002)</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>45</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="AB78" t="e">
+        <f t="shared" ref="AB78" ca="1" si="15">MOD(AB$77,$N$76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>41</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="AB79" t="e">
+        <f t="shared" ref="AB79" ca="1" si="16">QUOTIENT(AB$77,$N$76)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>26</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>47</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Q81">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="Z81">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="AA81">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="AB81" t="e">
+        <f t="shared" ref="AB81" ca="1" si="17">AB79*$N$76+AB78</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A82">
         <v>40</v>
       </c>
-      <c r="P77">
+      <c r="B82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="Z82">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="AA82">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="AB82" t="e">
+        <f ca="1">AB81=AB77</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>30</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <v>712</v>
-      </c>
-      <c r="S77">
-        <f ca="1">RANDBETWEEN(0,1002)</f>
-        <v>526</v>
-      </c>
-      <c r="T77">
-        <f t="shared" ref="T77:AB77" ca="1" si="11">RANDBETWEEN(0,1002)</f>
-        <v>274</v>
-      </c>
-      <c r="U77">
-        <f t="shared" ca="1" si="11"/>
-        <v>723</v>
-      </c>
-      <c r="V77">
-        <f t="shared" ca="1" si="11"/>
-        <v>778</v>
-      </c>
-      <c r="W77">
-        <v>1</v>
-      </c>
-      <c r="X77">
-        <f t="shared" ca="1" si="11"/>
-        <v>750</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" ca="1" si="11"/>
-        <v>798</v>
-      </c>
-      <c r="Z77">
-        <f t="shared" ca="1" si="11"/>
-        <v>689</v>
-      </c>
-      <c r="AA77">
-        <f t="shared" ca="1" si="11"/>
-        <v>884</v>
-      </c>
-      <c r="AB77">
-        <f t="shared" ca="1" si="11"/>
-        <v>202</v>
+      <c r="S83">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="Z83">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AA83">
+        <f t="shared" si="12"/>
+        <v>4</v>
       </c>
     </row>
-    <row r="78" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="O78">
-        <f>MOD(O$77,$N$76)</f>
-        <v>1</v>
-      </c>
-      <c r="P78">
-        <f t="shared" ref="P78:AB78" si="12">MOD(P$77,$N$76)</f>
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="S78">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="T78">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="U78">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="X78">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AA78">
-        <f t="shared" ca="1" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AB78">
-        <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>45</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="Z84">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="AA84">
+        <f t="shared" si="12"/>
+        <v>19</v>
       </c>
     </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="O79">
-        <f>QUOTIENT(O$77,$N$76)</f>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>46</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="W85">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="Z85">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="AA85">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>28</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="P79">
-        <f t="shared" ref="P79:AB79" si="13">QUOTIENT(P$77,$N$76)</f>
-        <v>4</v>
-      </c>
-      <c r="Q79">
+      <c r="Q86">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="Z86">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AA86">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>23</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R79">
+      <c r="C87">
         <f t="shared" si="13"/>
-        <v>237</v>
-      </c>
-      <c r="S79">
-        <f t="shared" ca="1" si="13"/>
-        <v>175</v>
-      </c>
-      <c r="T79">
-        <f t="shared" ca="1" si="13"/>
-        <v>91</v>
-      </c>
-      <c r="U79">
-        <f t="shared" ca="1" si="13"/>
-        <v>241</v>
-      </c>
-      <c r="V79">
-        <f t="shared" ca="1" si="13"/>
-        <v>259</v>
-      </c>
-      <c r="W79">
+        <v>1</v>
+      </c>
+      <c r="D87">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <f t="shared" ca="1" si="13"/>
-        <v>250</v>
-      </c>
-      <c r="Y79">
-        <f t="shared" ca="1" si="13"/>
-        <v>266</v>
-      </c>
-      <c r="Z79">
-        <f t="shared" ca="1" si="13"/>
-        <v>229</v>
-      </c>
-      <c r="AA79">
-        <f t="shared" ca="1" si="13"/>
-        <v>294</v>
-      </c>
-      <c r="AB79">
-        <f t="shared" ca="1" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="R87">
+        <f t="shared" ref="O87:AA90" si="18">MOD($A87,R$2)</f>
+        <v>6</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="Z87">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="AA87">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="W88">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Z88">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <f t="shared" si="18"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>42</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="18"/>
+        <v>20</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="18"/>
+        <v>19</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="Z89">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="AA89">
+        <f t="shared" si="18"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>26</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Z90">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="AA90">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <f>SUM(A71:A90)</f>
+        <v>659</v>
+      </c>
+      <c r="B91">
+        <f>SUM(B71:B90)</f>
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f>SUM(C71:C90)</f>
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <f>SUM(D71:D90)</f>
+        <v>26</v>
+      </c>
+      <c r="E91">
+        <f>SUM(E71:E90)</f>
+        <v>31</v>
+      </c>
+      <c r="F91">
+        <f>SUM(F71:F90)</f>
+        <v>19</v>
+      </c>
+      <c r="G91">
+        <f>SUM(G71:G90)</f>
+        <v>53</v>
+      </c>
+      <c r="H91">
+        <f>SUM(H71:H90)</f>
+        <v>78</v>
+      </c>
+      <c r="I91">
+        <f>SUM(I71:I90)</f>
         <v>67</v>
       </c>
+      <c r="J91">
+        <f>SUM(J71:J90)</f>
+        <v>92</v>
+      </c>
+      <c r="K91">
+        <f>SUM(K71:K90)</f>
+        <v>89</v>
+      </c>
+      <c r="L91">
+        <f>SUM(L71:L90)</f>
+        <v>87</v>
+      </c>
+      <c r="M91">
+        <f>SUM(M71:M90)</f>
+        <v>107</v>
+      </c>
+      <c r="N91">
+        <f>SUM(N71:N90)</f>
+        <v>74</v>
+      </c>
+      <c r="O91">
+        <f>SUM(O71:O90)</f>
+        <v>155</v>
+      </c>
+      <c r="P91">
+        <f>SUM(P71:P90)</f>
+        <v>149</v>
+      </c>
+      <c r="Q91">
+        <f>SUM(Q71:Q90)</f>
+        <v>211</v>
+      </c>
+      <c r="R91">
+        <f>SUM(R71:R90)</f>
+        <v>183</v>
+      </c>
+      <c r="S91">
+        <f>SUM(S71:S90)</f>
+        <v>155</v>
+      </c>
+      <c r="T91">
+        <f>SUM(T71:T90)</f>
+        <v>127</v>
+      </c>
+      <c r="U91">
+        <f>SUM(U71:U90)</f>
+        <v>99</v>
+      </c>
+      <c r="V91">
+        <f>SUM(V71:V90)</f>
+        <v>134</v>
+      </c>
+      <c r="W91">
+        <f>SUM(W71:W90)</f>
+        <v>131</v>
+      </c>
+      <c r="X91">
+        <f>SUM(X71:X90)</f>
+        <v>176</v>
+      </c>
+      <c r="Y91">
+        <f>SUM(Y71:Y90)</f>
+        <v>227</v>
+      </c>
+      <c r="Z91">
+        <f>SUM(Z71:Z90)</f>
+        <v>209</v>
+      </c>
+      <c r="AA91">
+        <f>SUM(AA71:AA90)</f>
+        <v>217</v>
+      </c>
     </row>
-    <row r="81" spans="7:28" x14ac:dyDescent="0.4">
-      <c r="G81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="O81">
-        <f>O79*$N$76+O78</f>
-        <v>40</v>
-      </c>
-      <c r="P81">
-        <f t="shared" ref="P81:R81" si="14">P79*$N$76+P78</f>
+    <row r="92" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="5">
+        <f>C91/$A$63</f>
+        <v>3.6307053941908715E-3</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" ref="D92:AA92" si="19">D91/$A$63</f>
+        <v>1.3485477178423237E-2</v>
+      </c>
+      <c r="E92" s="5">
+        <f t="shared" si="19"/>
+        <v>1.6078838174273857E-2</v>
+      </c>
+      <c r="F92" s="5">
+        <f t="shared" si="19"/>
+        <v>9.8547717842323648E-3</v>
+      </c>
+      <c r="G92" s="5">
+        <f t="shared" si="19"/>
+        <v>2.7489626556016597E-2</v>
+      </c>
+      <c r="H92" s="5">
+        <f t="shared" si="19"/>
+        <v>4.0456431535269712E-2</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="19"/>
+        <v>3.4751037344398342E-2</v>
+      </c>
+      <c r="J92" s="5">
+        <f t="shared" si="19"/>
+        <v>4.7717842323651449E-2</v>
+      </c>
+      <c r="K92" s="5">
+        <f t="shared" si="19"/>
+        <v>4.6161825726141081E-2</v>
+      </c>
+      <c r="L92" s="5">
+        <f t="shared" si="19"/>
+        <v>4.5124481327800829E-2</v>
+      </c>
+      <c r="M92" s="5">
+        <f t="shared" si="19"/>
+        <v>5.5497925311203317E-2</v>
+      </c>
+      <c r="N92" s="5">
+        <f t="shared" si="19"/>
+        <v>3.8381742738589214E-2</v>
+      </c>
+      <c r="O92" s="5">
+        <f t="shared" si="19"/>
+        <v>8.03941908713693E-2</v>
+      </c>
+      <c r="P92" s="5">
+        <f t="shared" si="19"/>
+        <v>7.7282157676348551E-2</v>
+      </c>
+      <c r="Q92" s="5">
+        <f t="shared" si="19"/>
+        <v>0.10943983402489627</v>
+      </c>
+      <c r="R92" s="5">
+        <f t="shared" si="19"/>
+        <v>9.4917012448132776E-2</v>
+      </c>
+      <c r="S92" s="5">
+        <f t="shared" si="19"/>
+        <v>8.03941908713693E-2</v>
+      </c>
+      <c r="T92" s="5">
+        <f t="shared" si="19"/>
+        <v>6.5871369294605811E-2</v>
+      </c>
+      <c r="U92" s="5">
+        <f t="shared" si="19"/>
+        <v>5.1348547717842322E-2</v>
+      </c>
+      <c r="V92" s="5">
+        <f t="shared" si="19"/>
+        <v>6.9502074688796683E-2</v>
+      </c>
+      <c r="W92" s="5">
+        <f t="shared" si="19"/>
+        <v>6.7946058091286302E-2</v>
+      </c>
+      <c r="X92" s="5">
+        <f t="shared" si="19"/>
+        <v>9.1286307053941904E-2</v>
+      </c>
+      <c r="Y92" s="5">
+        <f t="shared" si="19"/>
+        <v>0.11773858921161826</v>
+      </c>
+      <c r="Z92" s="5">
+        <f t="shared" si="19"/>
+        <v>0.10840248962655602</v>
+      </c>
+      <c r="AA92" s="5">
+        <f t="shared" si="19"/>
+        <v>0.11255186721991702</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="1">
+        <v>1</v>
+      </c>
+      <c r="C93" s="4">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2">
+        <v>3</v>
+      </c>
+      <c r="E93" s="4">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2">
+        <v>5</v>
+      </c>
+      <c r="G93" s="2">
+        <v>6</v>
+      </c>
+      <c r="H93" s="2">
+        <v>7</v>
+      </c>
+      <c r="I93" s="4">
+        <v>8</v>
+      </c>
+      <c r="J93" s="2">
+        <v>9</v>
+      </c>
+      <c r="K93" s="2">
+        <v>10</v>
+      </c>
+      <c r="L93" s="2">
+        <v>11</v>
+      </c>
+      <c r="M93" s="2">
+        <v>12</v>
+      </c>
+      <c r="N93" s="3">
         <v>13</v>
       </c>
-      <c r="Q81">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <f t="shared" si="14"/>
-        <v>712</v>
-      </c>
-      <c r="S81">
-        <f t="shared" ref="S81:AB81" ca="1" si="15">S79*$N$76+S78</f>
-        <v>526</v>
-      </c>
-      <c r="T81">
-        <f t="shared" ca="1" si="15"/>
-        <v>274</v>
-      </c>
-      <c r="U81">
-        <f t="shared" ca="1" si="15"/>
-        <v>723</v>
-      </c>
-      <c r="V81">
-        <f t="shared" ca="1" si="15"/>
-        <v>778</v>
-      </c>
-      <c r="W81">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="X81">
-        <f t="shared" ca="1" si="15"/>
-        <v>750</v>
-      </c>
-      <c r="Y81">
-        <f t="shared" ca="1" si="15"/>
-        <v>798</v>
-      </c>
-      <c r="Z81">
-        <f t="shared" ca="1" si="15"/>
-        <v>689</v>
-      </c>
-      <c r="AA81">
-        <f t="shared" ca="1" si="15"/>
-        <v>884</v>
-      </c>
-      <c r="AB81">
-        <f t="shared" ca="1" si="15"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="82" spans="7:28" x14ac:dyDescent="0.4">
-      <c r="O82" t="b">
-        <f t="shared" ref="O82:AA82" si="16">O81=O77</f>
-        <v>1</v>
-      </c>
-      <c r="P82" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="Q82" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="R82" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="S82" t="b">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="T82" t="b">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="U82" t="b">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="V82" t="b">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="W82" t="b">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="X82" t="b">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="Y82" t="b">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="Z82" t="b">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AA82" t="b">
-        <f t="shared" ca="1" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="AB82" t="b">
-        <f ca="1">AB81=AB77</f>
-        <v>1</v>
+      <c r="O93" s="3">
+        <v>14</v>
+      </c>
+      <c r="P93" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>16</v>
+      </c>
+      <c r="R93" s="3">
+        <v>17</v>
+      </c>
+      <c r="S93" s="3">
+        <v>18</v>
+      </c>
+      <c r="T93" s="3">
+        <v>19</v>
+      </c>
+      <c r="U93" s="3">
+        <v>20</v>
+      </c>
+      <c r="V93" s="3">
+        <v>21</v>
+      </c>
+      <c r="W93" s="3">
+        <v>22</v>
+      </c>
+      <c r="X93" s="3">
+        <v>23</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>24</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>25</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B63:AA63">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B91:AA91">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
